--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,337 @@
         <v>2.06</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45846.80699182904</v>
+        <v>45846.8069918287</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45847.78443994213</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45847.7845609375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C7" t="n">
+        <v>87</v>
+      </c>
+      <c r="D7" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45847.78467788194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C8" t="n">
+        <v>87</v>
+      </c>
+      <c r="D8" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45847.78479475695</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C9" t="n">
+        <v>87</v>
+      </c>
+      <c r="D9" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45847.78491170139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C10" t="n">
+        <v>87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45847.78502859954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87</v>
+      </c>
+      <c r="D11" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45847.78514553241</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C12" t="n">
+        <v>87</v>
+      </c>
+      <c r="D12" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45847.78526334491</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C13" t="n">
+        <v>87</v>
+      </c>
+      <c r="D13" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45847.78538048611</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C14" t="n">
+        <v>87</v>
+      </c>
+      <c r="D14" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45847.78549767361</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>296.96</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C15" t="n">
+        <v>87</v>
+      </c>
+      <c r="D15" t="n">
+        <v>296.32</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45847.78561471119</v>
       </c>
     </row>
   </sheetData>

--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,7 +896,307 @@
         <v>0.45</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45847.78561471119</v>
+        <v>45847.78561471065</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C16" t="n">
+        <v>87</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45847.8064534375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C17" t="n">
+        <v>87</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45847.80708885417</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C18" t="n">
+        <v>87</v>
+      </c>
+      <c r="D18" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45847.80760844907</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C19" t="n">
+        <v>87</v>
+      </c>
+      <c r="D19" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45847.80782381944</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C20" t="n">
+        <v>87</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45847.80794324074</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C21" t="n">
+        <v>87</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45847.80806027778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C22" t="n">
+        <v>87</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45847.81513325231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C23" t="n">
+        <v>87</v>
+      </c>
+      <c r="D23" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45847.81521659722</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C24" t="n">
+        <v>87</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45847.81533618055</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C25" t="n">
+        <v>87</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45847.81545343575</v>
       </c>
     </row>
   </sheetData>

--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,7 +1196,187 @@
         <v>3.82</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45847.81545343575</v>
+        <v>45847.8154534375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C26" t="n">
+        <v>58</v>
+      </c>
+      <c r="D26" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45855.71696476852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C27" t="n">
+        <v>59</v>
+      </c>
+      <c r="D27" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45855.72294375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C28" t="n">
+        <v>59</v>
+      </c>
+      <c r="D28" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45855.72369846065</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C29" t="n">
+        <v>59</v>
+      </c>
+      <c r="D29" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45855.72381907408</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C30" t="n">
+        <v>59</v>
+      </c>
+      <c r="D30" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45855.72667984954</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C31" t="n">
+        <v>59</v>
+      </c>
+      <c r="D31" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45855.72680192185</v>
       </c>
     </row>
   </sheetData>
